--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0FEEB-F228-4598-BD45-C8D4DA48ADB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C333FE-3F4F-4CBE-8B86-E33DF14406E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>Peça</t>
   </si>
@@ -753,7 +753,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
       </c>
       <c r="H2" s="28">
         <f>SUM(C:C)</f>
-        <v>320.56</v>
+        <v>180.66</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -853,7 +853,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>48</v>
@@ -883,7 +883,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>47</v>
@@ -907,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>40</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="H6" s="27">
         <f>SUMIF(D2:D27,"bq",C2:C27)</f>
-        <v>199.8</v>
+        <v>59.9</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -958,7 +958,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>54</v>
@@ -977,12 +977,6 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>139.9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1063,7 +1057,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1081,7 +1075,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1120,7 +1114,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1131,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="22"/>
@@ -1278,7 +1272,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,7 +1289,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C333FE-3F4F-4CBE-8B86-E33DF14406E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB5343E-D1D8-42BE-8F25-1D4332AA7DE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Peça</t>
   </si>
@@ -69,9 +69,6 @@
     <t>concluído</t>
   </si>
   <si>
-    <t>stepper motor 17HS4401</t>
-  </si>
-  <si>
     <t>coupler 8mmx5mm</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>circuitos</t>
   </si>
   <si>
-    <t>extrusor</t>
-  </si>
-  <si>
     <t>cremalheira</t>
   </si>
   <si>
@@ -196,6 +190,18 @@
   </si>
   <si>
     <t>smartfill</t>
+  </si>
+  <si>
+    <t>stepper motor Nema17</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>mudar para extrusor bq?</t>
+  </si>
+  <si>
+    <t>extruder</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -414,6 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +760,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,16 +789,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>3</v>
@@ -808,26 +815,26 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>59.9</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="28">
         <f>SUM(C:C)</f>
-        <v>180.66</v>
+        <v>307.76000000000005</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -841,7 +848,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -850,13 +857,13 @@
         <v>11.99</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="27">
         <f>SUMIF(D2:D27,"Ebay UK",C2:C27)</f>
@@ -871,7 +878,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -880,13 +887,13 @@
         <v>1.91</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="27">
         <f>SUMIF(D:D,"Casa martelo",C:C)</f>
@@ -895,7 +902,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13">
         <v>11</v>
@@ -904,13 +911,13 @@
         <v>10.029999999999999</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="27">
         <f>SUMIF(D2:D27,"AKI",C2:C27)</f>
@@ -922,23 +929,23 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="27">
         <f>SUMIF(D2:D27,"bq",C2:C27)</f>
-        <v>59.9</v>
+        <v>187</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -946,7 +953,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -955,13 +962,13 @@
         <v>22.64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="27">
         <f>SUMIF(D:D,"smartfill",C:C)</f>
@@ -972,39 +979,57 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
+      <c r="C8" s="3">
+        <v>139</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="27">
+        <f>SUMIF(D:D,"Amazon",C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1013,7 +1038,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -1022,7 +1047,7 @@
         <v>2.1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1030,14 +1055,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -1047,14 +1072,14 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -1063,7 +1088,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1072,7 +1097,7 @@
         <v>6.06</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -1080,7 +1105,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1091,7 +1116,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1102,7 +1127,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1111,7 +1136,7 @@
         <v>1.78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -1119,7 +1144,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1128,7 +1153,7 @@
         <v>2.59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -1138,7 +1163,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>28</v>
@@ -1147,7 +1172,7 @@
         <v>1.33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -1155,7 +1180,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
@@ -1164,7 +1189,7 @@
         <v>0.08</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -1172,7 +1197,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -1181,35 +1206,35 @@
         <v>0.16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1218,7 +1243,7 @@
         <v>0.19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1226,7 +1251,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1235,7 +1260,7 @@
         <v>0.05</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -1243,7 +1268,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -1252,7 +1277,7 @@
         <v>0.04</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -1260,7 +1285,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
@@ -1269,7 +1294,7 @@
         <v>1.89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -1277,7 +1302,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1286,7 +1311,7 @@
         <v>3.11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
@@ -1294,7 +1319,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -1303,7 +1328,7 @@
         <v>54.5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
@@ -1311,13 +1336,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3">
         <v>0.31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
